--- a/file_crawler.xlsx
+++ b/file_crawler.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="167">
   <si>
     <t>Root Folder</t>
   </si>
@@ -269,6 +269,9 @@
     <t>.xlsx</t>
   </si>
   <si>
+    <t>20K</t>
+  </si>
+  <si>
     <t>.vbs</t>
   </si>
   <si>
@@ -285,6 +288,234 @@
   </si>
   <si>
     <t>2009</t>
+  </si>
+  <si>
+    <t>.git</t>
+  </si>
+  <si>
+    <t>0-docker-toolbox</t>
+  </si>
+  <si>
+    <t>65B</t>
+  </si>
+  <si>
+    <t>1-poc-wxpython-image</t>
+  </si>
+  <si>
+    <t>36B</t>
+  </si>
+  <si>
+    <t>8K</t>
+  </si>
+  <si>
+    <t>2-measure-docker-resource-consumption</t>
+  </si>
+  <si>
+    <t>100B</t>
+  </si>
+  <si>
+    <t>3-ssh-from-docker-to-host</t>
+  </si>
+  <si>
+    <t>194B</t>
+  </si>
+  <si>
+    <t>6K</t>
+  </si>
+  <si>
+    <t>82B</t>
+  </si>
+  <si>
+    <t>4-firefox-executor</t>
+  </si>
+  <si>
+    <t>91B</t>
+  </si>
+  <si>
+    <t>5-python-virtual-env</t>
+  </si>
+  <si>
+    <t>14K</t>
+  </si>
+  <si>
+    <t>50M</t>
+  </si>
+  <si>
+    <t>127M</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>677K</t>
+  </si>
+  <si>
+    <t>461K</t>
+  </si>
+  <si>
+    <t>385K</t>
+  </si>
+  <si>
+    <t>16K</t>
+  </si>
+  <si>
+    <t>46M</t>
+  </si>
+  <si>
+    <t>85K</t>
+  </si>
+  <si>
+    <t>650B</t>
+  </si>
+  <si>
+    <t>356K</t>
+  </si>
+  <si>
+    <t>98K</t>
+  </si>
+  <si>
+    <t>828K</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>530K</t>
+  </si>
+  <si>
+    <t>9K</t>
+  </si>
+  <si>
+    <t>17K</t>
+  </si>
+  <si>
+    <t>31K</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>21K</t>
+  </si>
+  <si>
+    <t>18B</t>
+  </si>
+  <si>
+    <t>file_crawler_project</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>26M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>291K</t>
+  </si>
+  <si>
+    <t>164K</t>
+  </si>
+  <si>
+    <t>531B</t>
+  </si>
+  <si>
+    <t>177K</t>
+  </si>
+  <si>
+    <t>716B</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>42K</t>
+  </si>
+  <si>
+    <t>325B</t>
+  </si>
+  <si>
+    <t>791B</t>
+  </si>
+  <si>
+    <t>815B</t>
+  </si>
+  <si>
+    <t>178K</t>
+  </si>
+  <si>
+    <t>49K</t>
+  </si>
+  <si>
+    <t>275K</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>628B</t>
+  </si>
+  <si>
+    <t>356B</t>
+  </si>
+  <si>
+    <t>535B</t>
+  </si>
+  <si>
+    <t>simple_gui_ardom_integration</t>
+  </si>
+  <si>
+    <t>7K</t>
+  </si>
+  <si>
+    <t>21M</t>
+  </si>
+  <si>
+    <t>71M</t>
+  </si>
+  <si>
+    <t>17M</t>
+  </si>
+  <si>
+    <t>305K</t>
+  </si>
+  <si>
+    <t>226K</t>
+  </si>
+  <si>
+    <t>207K</t>
+  </si>
+  <si>
+    <t>23M</t>
+  </si>
+  <si>
+    <t>277K</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>265K</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>329B</t>
+  </si>
+  <si>
+    <t>wxpython-test-image</t>
+  </si>
+  <si>
+    <t>886B</t>
   </si>
 </sst>
 </file>
@@ -742,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="G6">
-        <v>89544253</v>
+        <v>89546181</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -842,7 +1073,7 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <v>68229714</v>
+        <v>68230904</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
@@ -882,7 +1113,7 @@
         <v>29</v>
       </c>
       <c r="G13">
-        <v>882928</v>
+        <v>883211</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
@@ -1502,13 +1733,13 @@
         <v>83</v>
       </c>
       <c r="G44">
-        <v>12492</v>
+        <v>20968</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1519,13 +1750,13 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45">
         <v>140</v>
       </c>
       <c r="I45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -1539,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G46">
         <v>1390983</v>
@@ -1559,13 +1790,13 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G47">
         <v>120296972</v>
       </c>
       <c r="I47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -1576,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
@@ -1596,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
         <v>29</v>
@@ -1618,12 +1849,2413 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>18844</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>408284</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>325513064</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>13231</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>1463</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>9112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>194</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>6664</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>553</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>1416</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>15263</v>
+      </c>
+      <c r="I17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>53287014</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>6166</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>133359433</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>38741395</v>
+      </c>
+      <c r="I21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>693519</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>472811</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>1062</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>394414</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <v>1432</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27">
+        <v>17280</v>
+      </c>
+      <c r="I27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>48834960</v>
+      </c>
+      <c r="I28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>87068</v>
+      </c>
+      <c r="I29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>16656</v>
+      </c>
+      <c r="I30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="I31" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32">
+        <v>1582</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33">
+        <v>1630</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34">
+        <v>365448</v>
+      </c>
+      <c r="I34" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35">
+        <v>12716</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36">
+        <v>100382</v>
+      </c>
+      <c r="I36" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37">
+        <v>848887</v>
+      </c>
+      <c r="I37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38">
+        <v>8609</v>
+      </c>
+      <c r="I38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39">
+        <v>10408588</v>
+      </c>
+      <c r="I39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40">
+        <v>1884</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41">
+        <v>1068</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42">
+        <v>8648</v>
+      </c>
+      <c r="I42" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43">
+        <v>543048</v>
+      </c>
+      <c r="I43" t="s">
+        <v>121</v>
+      </c>
+      <c r="K43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44">
+        <v>9358</v>
+      </c>
+      <c r="I44" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45">
+        <v>17472</v>
+      </c>
+      <c r="I45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46">
+        <v>10036891</v>
+      </c>
+      <c r="I46" t="s">
+        <v>120</v>
+      </c>
+      <c r="K46">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47">
+        <v>31844</v>
+      </c>
+      <c r="I47" t="s">
+        <v>124</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48">
+        <v>5415395</v>
+      </c>
+      <c r="I48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49">
+        <v>21810</v>
+      </c>
+      <c r="I49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52">
+        <v>3198</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53">
+        <v>1235</v>
+      </c>
+      <c r="I53" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54">
+        <v>13605081</v>
+      </c>
+      <c r="I54" t="s">
+        <v>129</v>
+      </c>
+      <c r="K54">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>1364</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56">
+        <v>27766238</v>
+      </c>
+      <c r="I56" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57">
+        <v>11231617</v>
+      </c>
+      <c r="I57" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58">
+        <v>298228</v>
+      </c>
+      <c r="I58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59">
+        <v>168226</v>
+      </c>
+      <c r="I59" t="s">
+        <v>133</v>
+      </c>
+      <c r="K59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60">
+        <v>531</v>
+      </c>
+      <c r="I60" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61">
+        <v>181926</v>
+      </c>
+      <c r="I61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62">
+        <v>716</v>
+      </c>
+      <c r="I62" t="s">
+        <v>136</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63">
+        <v>8640</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64">
+        <v>4420096</v>
+      </c>
+      <c r="I64" t="s">
+        <v>137</v>
+      </c>
+      <c r="K64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65">
+        <v>43534</v>
+      </c>
+      <c r="I65" t="s">
+        <v>138</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66">
+        <v>8328</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+      <c r="K66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67">
+        <v>325</v>
+      </c>
+      <c r="I67" t="s">
+        <v>139</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68">
+        <v>791</v>
+      </c>
+      <c r="I68" t="s">
+        <v>140</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69">
+        <v>815</v>
+      </c>
+      <c r="I69" t="s">
+        <v>141</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70">
+        <v>182724</v>
+      </c>
+      <c r="I70" t="s">
+        <v>142</v>
+      </c>
+      <c r="K70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71">
+        <v>6358</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72">
+        <v>50191</v>
+      </c>
+      <c r="I72" t="s">
+        <v>143</v>
+      </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73">
+        <v>282394</v>
+      </c>
+      <c r="I73" t="s">
+        <v>144</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74">
+        <v>2736</v>
+      </c>
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75">
+        <v>2243057</v>
+      </c>
+      <c r="I75" t="s">
+        <v>145</v>
+      </c>
+      <c r="K75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76">
+        <v>628</v>
+      </c>
+      <c r="I76" t="s">
+        <v>146</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77">
+        <v>356</v>
+      </c>
+      <c r="I77" t="s">
+        <v>147</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>75</v>
+      </c>
+      <c r="G78">
+        <v>18456</v>
+      </c>
+      <c r="I78" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79">
+        <v>535</v>
+      </c>
+      <c r="I79" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80">
+        <v>13474</v>
+      </c>
+      <c r="I80" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81">
+        <v>2484</v>
+      </c>
+      <c r="I81" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82">
+        <v>1113</v>
+      </c>
+      <c r="I82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83">
+        <v>7398</v>
+      </c>
+      <c r="I83" t="s">
+        <v>150</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84">
+        <v>22640661</v>
+      </c>
+      <c r="I84" t="s">
+        <v>151</v>
+      </c>
+      <c r="K84">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85">
+        <v>2655</v>
+      </c>
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86">
+        <v>74639939</v>
+      </c>
+      <c r="I86" t="s">
+        <v>152</v>
+      </c>
+      <c r="K86">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87">
+        <v>18257892</v>
+      </c>
+      <c r="I87" t="s">
+        <v>153</v>
+      </c>
+      <c r="K87">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88">
+        <v>312340</v>
+      </c>
+      <c r="I88" t="s">
+        <v>154</v>
+      </c>
+      <c r="K88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89">
+        <v>231988</v>
+      </c>
+      <c r="I89" t="s">
+        <v>155</v>
+      </c>
+      <c r="K89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90">
+        <v>531</v>
+      </c>
+      <c r="I90" t="s">
+        <v>134</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91">
+        <v>212488</v>
+      </c>
+      <c r="I91" t="s">
+        <v>156</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92">
+        <v>716</v>
+      </c>
+      <c r="I92" t="s">
+        <v>136</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93">
+        <v>8640</v>
+      </c>
+      <c r="I93" t="s">
+        <v>96</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94">
+        <v>25152000</v>
+      </c>
+      <c r="I94" t="s">
+        <v>157</v>
+      </c>
+      <c r="K94">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95">
+        <v>43534</v>
+      </c>
+      <c r="I95" t="s">
+        <v>138</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96">
+        <v>8328</v>
+      </c>
+      <c r="I96" t="s">
+        <v>96</v>
+      </c>
+      <c r="K96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97">
+        <v>325</v>
+      </c>
+      <c r="I97" t="s">
+        <v>139</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98">
+        <v>791</v>
+      </c>
+      <c r="I98" t="s">
+        <v>140</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+      <c r="G99">
+        <v>815</v>
+      </c>
+      <c r="I99" t="s">
+        <v>141</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100">
+        <v>182724</v>
+      </c>
+      <c r="I100" t="s">
+        <v>142</v>
+      </c>
+      <c r="K100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101">
+        <v>6358</v>
+      </c>
+      <c r="I101" t="s">
+        <v>101</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>53</v>
+      </c>
+      <c r="G102">
+        <v>50191</v>
+      </c>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>55</v>
+      </c>
+      <c r="G103">
+        <v>284099</v>
+      </c>
+      <c r="I103" t="s">
+        <v>158</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G104">
+        <v>2733</v>
+      </c>
+      <c r="I104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105">
+        <v>3764987</v>
+      </c>
+      <c r="I105" t="s">
+        <v>159</v>
+      </c>
+      <c r="K105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>60</v>
+      </c>
+      <c r="G106">
+        <v>628</v>
+      </c>
+      <c r="I106" t="s">
+        <v>146</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>61</v>
+      </c>
+      <c r="G107">
+        <v>356</v>
+      </c>
+      <c r="I107" t="s">
+        <v>147</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>62</v>
+      </c>
+      <c r="G108">
+        <v>4324</v>
+      </c>
+      <c r="I108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109">
+        <v>271524</v>
+      </c>
+      <c r="I109" t="s">
+        <v>161</v>
+      </c>
+      <c r="K109">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>66</v>
+      </c>
+      <c r="G110">
+        <v>4679</v>
+      </c>
+      <c r="I110" t="s">
+        <v>160</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>67</v>
+      </c>
+      <c r="G111">
+        <v>8736</v>
+      </c>
+      <c r="I111" t="s">
+        <v>96</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>69</v>
+      </c>
+      <c r="G112">
+        <v>4861204</v>
+      </c>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+      <c r="K112">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>71</v>
+      </c>
+      <c r="G113">
+        <v>15922</v>
+      </c>
+      <c r="I113" t="s">
+        <v>162</v>
+      </c>
+      <c r="K113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>73</v>
+      </c>
+      <c r="G114">
+        <v>2619997</v>
+      </c>
+      <c r="I114" t="s">
+        <v>145</v>
+      </c>
+      <c r="K114">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>75</v>
+      </c>
+      <c r="G115">
+        <v>1547</v>
+      </c>
+      <c r="I115" t="s">
+        <v>45</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>85</v>
+      </c>
+      <c r="G116">
+        <v>140</v>
+      </c>
+      <c r="I116" t="s">
+        <v>86</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G117">
+        <v>1390983</v>
+      </c>
+      <c r="I117" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118">
+        <v>329</v>
+      </c>
+      <c r="I118" t="s">
+        <v>164</v>
+      </c>
+      <c r="K118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119">
+        <v>2403</v>
+      </c>
+      <c r="I119" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120">
+        <v>886</v>
+      </c>
+      <c r="I120" t="s">
+        <v>166</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>